--- a/data/trans_camb/P12_2_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-7.486080729794911</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-3.667502298007752</v>
+        <v>-3.667502298007755</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.006935303442878</v>
+        <v>-7.06333258246385</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.708291981590074</v>
+        <v>-8.804696152274056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.835957055513036</v>
+        <v>-5.7311092520067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.83465372205581</v>
+        <v>-12.06407534878235</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-19.22117642400527</v>
+        <v>-19.43180883086416</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-13.93136134391868</v>
+        <v>-14.15808238198161</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.309171466003049</v>
+        <v>-7.175104809855933</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-11.09619550193258</v>
+        <v>-10.89630215079936</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.146202581209497</v>
+        <v>-7.357974050667297</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.931584567696749</v>
+        <v>2.890226814459815</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8602224601456703</v>
+        <v>0.5130933570916032</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.216501309638463</v>
+        <v>3.594076284903427</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.83106950294875</v>
+        <v>2.006672244643779</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-6.180501618532755</v>
+        <v>-7.049992682939292</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.984888152411379</v>
+        <v>-2.127959915966876</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.111326411262777</v>
+        <v>0.8065278848775842</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-3.473843227026405</v>
+        <v>-3.197181921083092</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08766451329980469</v>
+        <v>0.1707241432781479</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.3609075558162699</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.176812051339018</v>
+        <v>-0.1768120513390181</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3616037967030535</v>
+        <v>-0.3690915143565519</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4500557995757747</v>
+        <v>-0.4517619615365893</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2989846310015106</v>
+        <v>-0.291201318568201</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4113172012522003</v>
+        <v>-0.407835112094656</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.636152984011797</v>
+        <v>-0.6333929695463871</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4573342954377208</v>
+        <v>-0.4658986042655786</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3218043516892382</v>
+        <v>-0.3145997396869294</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4945811466024878</v>
+        <v>-0.4804788340783603</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3146743097060922</v>
+        <v>-0.3206522464336891</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2009855016109133</v>
+        <v>0.1929254290124129</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05489175643464247</v>
+        <v>0.03688480243817205</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2224262078449177</v>
+        <v>0.2399121442928328</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.07788187487742317</v>
+        <v>0.09190534318856275</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2647519465634586</v>
+        <v>-0.2918771488877981</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.09013188598468448</v>
+        <v>-0.08990439836646004</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06944550309775392</v>
+        <v>0.04290191251960487</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1803255245219685</v>
+        <v>-0.1737214172397067</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.004489925839880269</v>
+        <v>0.009625582502687031</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-8.287089829016409</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.929912072297139</v>
+        <v>-2.929912072297141</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.603724238339583</v>
@@ -878,7 +878,7 @@
         <v>-8.085161903473603</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-3.561351599032525</v>
+        <v>-3.561351599032522</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.440045501295838</v>
+        <v>-5.966657104402463</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.38868432426271</v>
+        <v>-13.11402164824152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.988410532545434</v>
+        <v>-7.94603560271684</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.182219104704638</v>
+        <v>-8.892180083551999</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-14.1129001608591</v>
+        <v>-13.67254377811445</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.882396906227333</v>
+        <v>-8.987757852003552</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.103879910958603</v>
+        <v>-5.798710713874514</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-12.03658290666243</v>
+        <v>-12.03254715169921</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-7.088992120974037</v>
+        <v>-7.710527148226596</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.765820685467573</v>
+        <v>6.015129164345502</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.564044674915686</v>
+        <v>-2.728526063377294</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.068886811219448</v>
+        <v>2.157759733293074</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.781476921304028</v>
+        <v>3.989972052808055</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.06206762674471</v>
+        <v>-1.089671421202963</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.855692940853739</v>
+        <v>2.208999439989302</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.795773397790525</v>
+        <v>2.808690403742443</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.012574762324128</v>
+        <v>-3.880197354864467</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2256701255333846</v>
+        <v>0.08040855054306978</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.5039344389043511</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1781667179499352</v>
+        <v>-0.1781667179499354</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1042975557002035</v>
@@ -983,7 +983,7 @@
         <v>-0.3899656454488971</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1717720426093771</v>
+        <v>-0.171772042609377</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2859512720358784</v>
+        <v>-0.3080851011208768</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6752376941145725</v>
+        <v>-0.6814536340754144</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4084896813791296</v>
+        <v>-0.4104952639463121</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3335680908756291</v>
+        <v>-0.3111013643508913</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4958817029702508</v>
+        <v>-0.4855650437826817</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3414870047323562</v>
+        <v>-0.3225483507220566</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2618631296591089</v>
+        <v>-0.2568536284444056</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5205574352214747</v>
+        <v>-0.5247799491515686</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3080356599342922</v>
+        <v>-0.3310234537323639</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4279441212862691</v>
+        <v>0.4398413158860859</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2388381247153425</v>
+        <v>-0.2038013884450573</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1594820553469159</v>
+        <v>0.1693033950625598</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1712785835589214</v>
+        <v>0.184535417928945</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.09430971582886942</v>
+        <v>-0.04699611889246798</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08474853038347349</v>
+        <v>0.07849609746089778</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1470627577681623</v>
+        <v>0.1475139219766727</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2211174652864118</v>
+        <v>-0.2098611694479763</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.01274072990453992</v>
+        <v>0.005853204613227058</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.975482445669374</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-2.364679282826645</v>
+        <v>-2.364679282826651</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-4.94728128558552</v>
@@ -1083,7 +1083,7 @@
         <v>-7.13079834981602</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.910586398925852</v>
+        <v>-2.910586398925857</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.029835091483355</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.078082913209008</v>
+        <v>-4.831187504096981</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.903311672525378</v>
+        <v>-6.212312894577298</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.388777611327992</v>
+        <v>-7.091248517638812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.77183082283316</v>
+        <v>-14.46692885400121</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-16.13252168521103</v>
+        <v>-17.31627919216251</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.23212872166391</v>
+        <v>-11.74564644069289</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.156330220058393</v>
+        <v>-4.828111855533355</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.590952430306539</v>
+        <v>-7.640505648454744</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.530995389283448</v>
+        <v>-6.600040237496084</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.582153316218094</v>
+        <v>4.916110426598325</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.958830126490328</v>
+        <v>3.101130367533107</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.211195251718265</v>
+        <v>2.349768711094622</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.455444299298484</v>
+        <v>4.242126897291865</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.926915830769687</v>
+        <v>2.544516262816923</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.736834076745023</v>
+        <v>5.680851989426654</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.159274558891981</v>
+        <v>3.33439694267835</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.254956807823583</v>
+        <v>1.146907594700462</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.175591385870392</v>
+        <v>2.029047937185566</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1007512402665398</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1206006011846132</v>
+        <v>-0.1206006011846134</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1729918816118893</v>
@@ -1188,7 +1188,7 @@
         <v>-0.2493430538352001</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1017746492828667</v>
+        <v>-0.1017746492828669</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.04738870641523835</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2390382028241483</v>
+        <v>-0.2179899731757648</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3209932669159785</v>
+        <v>-0.2843128928704517</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3291434203099269</v>
+        <v>-0.3259119137671846</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4032115266642148</v>
+        <v>-0.4171113247798355</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4871234993697202</v>
+        <v>-0.5212425275982815</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3632127990566393</v>
+        <v>-0.3496790471529132</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2124876928870521</v>
+        <v>-0.2015431969604619</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3197371490750771</v>
+        <v>-0.3183715286735506</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2676221698106439</v>
+        <v>-0.2727559113269581</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2708198146876</v>
+        <v>0.2922029796780182</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1683961283980619</v>
+        <v>0.1805915139406457</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1319636024621431</v>
+        <v>0.1370159206230211</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1551712438960302</v>
+        <v>0.1846992749757937</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1424098908287164</v>
+        <v>0.1090878582313966</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2624323721308071</v>
+        <v>0.244561402614649</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1656515864259802</v>
+        <v>0.1790882606637304</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.06785952507476407</v>
+        <v>0.05999802155840534</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1096369987779212</v>
+        <v>0.1025340908414294</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-6.220311452417226</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.238934907639002</v>
+        <v>-3.238934907638993</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.071152513879007</v>
+        <v>-7.904610887734632</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.586556508409668</v>
+        <v>-9.298314313609545</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.114955196289445</v>
+        <v>-7.965026524613701</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.549464427458005</v>
+        <v>-7.374651520135894</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.095738197331</v>
+        <v>-10.97598413376121</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.023574688645343</v>
+        <v>-5.140707159784243</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.550274524522863</v>
+        <v>-6.641176845354916</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.656338759218981</v>
+        <v>-8.824263574460808</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.988240028656441</v>
+        <v>-6.031732767671208</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.190604657524639</v>
+        <v>-1.018916063546562</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.999146996380965</v>
+        <v>-2.906767841880815</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.286306497070923</v>
+        <v>-1.206338711123027</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.261752817319099</v>
+        <v>1.389668183669325</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-2.017088080231582</v>
+        <v>-2.468144424314402</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.668897191736783</v>
+        <v>2.646963742133921</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.042699114211363</v>
+        <v>-1.298293671345344</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.516319138614386</v>
+        <v>-3.487677738134987</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.737200307875635</v>
+        <v>-0.6387199481677162</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.2593783694691678</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1350590981796748</v>
+        <v>-0.1350590981796745</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3163422088659254</v>
+        <v>-0.3142874726544786</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3788028341778483</v>
+        <v>-0.3676206934093498</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3175244725783717</v>
+        <v>-0.3121240664151756</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2817171212309593</v>
+        <v>-0.2783186726027954</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3807726072978398</v>
+        <v>-0.4023070915836472</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1854688502135563</v>
+        <v>-0.196771866296599</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2566768809592935</v>
+        <v>-0.2661576479057127</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3373364311780206</v>
+        <v>-0.3463986179196831</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.232270447434684</v>
+        <v>-0.2364951212662406</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.05310873581706244</v>
+        <v>-0.04669769538919719</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1407884771000808</v>
+        <v>-0.1329801395180675</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.05902153259285906</v>
+        <v>-0.05412552001973037</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.05887995765244333</v>
+        <v>0.06593759804877851</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.08665460637840115</v>
+        <v>-0.1072034738684545</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1213885753394698</v>
+        <v>0.1206805882096999</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.04561957277143126</v>
+        <v>-0.05837503920652305</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1518013497028056</v>
+        <v>-0.1586266311573664</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.03074257290866035</v>
+        <v>-0.02507704913755921</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.8536183500007538</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.060000431847991</v>
+        <v>-1.060000431847996</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.895017430389312</v>
@@ -1511,7 +1511,7 @@
         <v>-3.637899364503988</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.494208121307946</v>
+        <v>-4.494208121307953</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-2.902070293256104</v>
@@ -1520,7 +1520,7 @@
         <v>-3.201054827860289</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-3.375739463547889</v>
+        <v>-3.375739463547891</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.068664993090007</v>
+        <v>-9.289139643763997</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.330244185469684</v>
+        <v>-6.4601038797562</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.191727105980562</v>
+        <v>-6.929283011690862</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.038163630443438</v>
+        <v>-7.545616295720271</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.139690523973272</v>
+        <v>-8.90993513127099</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.403259764275546</v>
+        <v>-9.458423459865278</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-7.169523719089802</v>
+        <v>-6.530510092217573</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.252869605230239</v>
+        <v>-7.183848302855606</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.159601569793909</v>
+        <v>-7.074990912771324</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.836838810755038</v>
+        <v>1.513760551006402</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.735253173263049</v>
+        <v>4.390544003998197</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.775899210317761</v>
+        <v>4.438968234457132</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.494649461911356</v>
+        <v>3.860292286111068</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.345004368590527</v>
+        <v>1.442964399530335</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.0209389759694383</v>
+        <v>0.008279964970704537</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5307012432301147</v>
+        <v>0.8920482130951498</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5493230449468233</v>
+        <v>0.9195809641473978</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2625371627963473</v>
+        <v>0.3343689217144393</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.03984355508034345</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.04947666084203316</v>
+        <v>-0.04947666084203342</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.05832107527314517</v>
@@ -1616,7 +1616,7 @@
         <v>-0.1119600270007948</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1383137938114553</v>
+        <v>-0.1383137938114554</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1026478310092513</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1132230793255131</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1194017714838808</v>
+        <v>-0.1194017714838809</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3763328328497289</v>
+        <v>-0.3697765741722713</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2556191620743956</v>
+        <v>-0.2587226773744827</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2656624483676692</v>
+        <v>-0.2816493797384313</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2012488904817935</v>
+        <v>-0.2123957371896448</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2600294266054738</v>
+        <v>-0.2477397392085561</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2544968113881051</v>
+        <v>-0.2654642248490053</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2362414495165787</v>
+        <v>-0.2136682253776988</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2378147626339258</v>
+        <v>-0.2389921707381812</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2327361669787064</v>
+        <v>-0.2304544696454084</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1075331998432018</v>
+        <v>0.08463274810825433</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2541280406740903</v>
+        <v>0.249788604540001</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2638807098776464</v>
+        <v>0.253186322464117</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1155454437205531</v>
+        <v>0.1379212711666299</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.04200634123035343</v>
+        <v>0.04979432819353702</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003182645622180263</v>
+        <v>-0.003145680047700725</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01923115296864764</v>
+        <v>0.03665648954616652</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.02107502317233127</v>
+        <v>0.03988210878807249</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.01200526634834974</v>
+        <v>0.01304792330163704</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>0.3862576220394293</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-1.531666117099462</v>
+        <v>-1.531666117099464</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-6.501840756387067</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.768690589639943</v>
+        <v>-4.250899997831999</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.620761493128079</v>
+        <v>-3.799009603918353</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-5.644633576453396</v>
+        <v>-5.809526813483758</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-10.58709798456134</v>
+        <v>-10.32052222650318</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-12.50200894318745</v>
+        <v>-12.16235700134874</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-15.01507414803202</v>
+        <v>-14.63412459460932</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-8.439883500161278</v>
+        <v>-8.388744514186849</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-10.31077713385261</v>
+        <v>-10.48745213234817</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-13.15943227388013</v>
+        <v>-12.95862716589069</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.912748910033061</v>
+        <v>4.688567080333892</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.49936729134741</v>
+        <v>4.782001383768292</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.605083626634823</v>
+        <v>4.196470457439057</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-2.493445916693863</v>
+        <v>-2.264172798439883</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-4.809867493340518</v>
+        <v>-4.287880084274751</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-7.790519056004442</v>
+        <v>-7.606328770120006</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-2.14627492904232</v>
+        <v>-1.964555570859982</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-3.845075109400037</v>
+        <v>-4.085804727331233</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-6.845441861250857</v>
+        <v>-6.520428881602758</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.05556846796841797</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.2203512234061865</v>
+        <v>-0.2203512234061867</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.1921313972084461</v>
@@ -1830,7 +1830,7 @@
         <v>-0.2527378354171599</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3319992558521558</v>
+        <v>-0.331999255852156</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.1821599617479115</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4457310532742081</v>
+        <v>-0.4701763972483088</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4365973319398104</v>
+        <v>-0.4233172585444069</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6759504612449978</v>
+        <v>-0.6778209973317332</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2928667627151985</v>
+        <v>-0.296815595648259</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3556807115474535</v>
+        <v>-0.3407813806141642</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4210050784553973</v>
+        <v>-0.4118201466701762</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2768962775408526</v>
+        <v>-0.2800678199216466</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3442611532709849</v>
+        <v>-0.3468785797116542</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4390975935297755</v>
+        <v>-0.4273019571406676</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7639863842350113</v>
+        <v>0.9357847195506422</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9709383941938913</v>
+        <v>0.974517856206438</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.7758835118054731</v>
+        <v>0.8084240569686402</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.07643743088446169</v>
+        <v>-0.0727849820799079</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1474045001381359</v>
+        <v>-0.1319772126860472</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2421692622103273</v>
+        <v>-0.2390467775763451</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.07485590083841499</v>
+        <v>-0.06971843032257463</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1477753575953906</v>
+        <v>-0.1444831317464102</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.2473120629297043</v>
+        <v>-0.2393610657311364</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-3.895397504093678</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-2.716632460415103</v>
+        <v>-2.716632460415105</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-4.265958911354923</v>
@@ -1948,7 +1948,7 @@
         <v>-5.719854254906767</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-4.508880156389747</v>
+        <v>-4.50888015638975</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.083816747881288</v>
+        <v>-4.096362173343011</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.758959790283344</v>
+        <v>-5.682118453548118</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.536097676503849</v>
+        <v>-4.707208549710997</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-6.351538008788257</v>
+        <v>-6.219049253523429</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-9.67829255002877</v>
+        <v>-9.626769584676381</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-8.293313321105966</v>
+        <v>-8.181570170481049</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-4.826651008694689</v>
+        <v>-4.558782102169619</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-7.29495180105148</v>
+        <v>-7.114127739265863</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-5.814493710018565</v>
+        <v>-5.773949329830925</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.2923458238210856</v>
+        <v>-0.227881632611159</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.126064745565373</v>
+        <v>-2.075542566790501</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.8193096855028555</v>
+        <v>-0.9045200922716059</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-2.042483821071059</v>
+        <v>-1.938952360078179</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-5.599354536875367</v>
+        <v>-5.358940978451429</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-4.243267766069</v>
+        <v>-4.359991960014495</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-1.731338831992322</v>
+        <v>-1.72448769551551</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-4.376383844741196</v>
+        <v>-4.285237107629984</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-3.238750510492752</v>
+        <v>-3.083929438920506</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.1995661663076506</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1391765345698914</v>
+        <v>-0.1391765345698915</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.1437405071356525</v>
@@ -2053,7 +2053,7 @@
         <v>-0.2317491989137459</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.1826846135712319</v>
+        <v>-0.182684613571232</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2021503494007017</v>
+        <v>-0.2005899802158446</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2808478598439015</v>
+        <v>-0.2765094919641913</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2226368360788395</v>
+        <v>-0.2264463467826379</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.205814633682331</v>
+        <v>-0.2027684999384528</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3154900478723409</v>
+        <v>-0.3131769889171763</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2686117691184588</v>
+        <v>-0.2647946281256549</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1907646488570119</v>
+        <v>-0.1802931083295016</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2848090519628479</v>
+        <v>-0.2803609948436128</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2300712733061929</v>
+        <v>-0.2280748307304042</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.0178728184195325</v>
+        <v>-0.01153378791345552</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1100633236561713</v>
+        <v>-0.1118314311123492</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.04693234020046666</v>
+        <v>-0.04773286006735141</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.07044272184920344</v>
+        <v>-0.06836433907486021</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1924265676959404</v>
+        <v>-0.1875699106676866</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1479859002614301</v>
+        <v>-0.1525642106630348</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.07274140187540572</v>
+        <v>-0.07391119782399466</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1830182186769743</v>
+        <v>-0.1788770670649999</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1348779251805315</v>
+        <v>-0.1295064212513619</v>
       </c>
     </row>
     <row r="46">
